--- a/GATEWAY/A1#111#BLAISSEDSRLXX/BLAISSEDSRL/B-Medic/3.0.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#BLAISSEDSRLXX/BLAISSEDSRL/B-Medic/3.0.0.0/report-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.23.241\Cartella ufficio\Procedure\SANITA\FSE2.0\it-fse-accreditamento-main (1)\it-fse-accreditamento-main\Test Case\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andreacontini\Documents\FSE\BLAISSED - Copia\A1#111#BLAISSEDSRLXX\BLAISSEDSRL\B-Medic\3.0.0.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61145F5-A307-48F5-B66B-931CAB747E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D026C8-7680-43EA-83E3-A7A6E1A85628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1788,7 +1788,7 @@
     <t>subject_application_vendor:BLAISSEDSRL</t>
   </si>
   <si>
-    <t>subject_application_version:3.5.0.0</t>
+    <t>subject_application_version:3.0.0.0</t>
   </si>
 </sst>
 </file>
@@ -2325,7 +2325,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2445,28 +2445,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2497,9 +2475,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2526,6 +2501,28 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3977,7 +3974,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B100" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6:B6"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4022,12 +4019,12 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="48"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="69"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -4048,14 +4045,14 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="56" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="77" t="s">
         <v>460</v>
       </c>
-      <c r="D3" s="48"/>
+      <c r="D3" s="69"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -4076,12 +4073,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="56" t="s">
+      <c r="A4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="77" t="s">
         <v>461</v>
       </c>
-      <c r="D4" s="48"/>
+      <c r="D4" s="69"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -4103,12 +4100,12 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="56" t="s">
+      <c r="A5" s="75"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="77" t="s">
         <v>462</v>
       </c>
-      <c r="D5" s="48"/>
+      <c r="D5" s="69"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -4129,8 +4126,8 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
-      <c r="B6" s="46"/>
+      <c r="A6" s="66"/>
+      <c r="B6" s="67"/>
       <c r="C6" s="10"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -6923,7 +6920,7 @@
       <c r="J81" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K81" s="78" t="s">
+      <c r="K81" s="65" t="s">
         <v>444</v>
       </c>
       <c r="L81" s="38"/>
@@ -6964,7 +6961,7 @@
       <c r="J82" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K82" s="78" t="s">
+      <c r="K82" s="65" t="s">
         <v>444</v>
       </c>
       <c r="L82" s="38"/>
@@ -7062,7 +7059,7 @@
       <c r="J84" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K84" s="78" t="s">
+      <c r="K84" s="65" t="s">
         <v>447</v>
       </c>
       <c r="L84" s="38"/>
@@ -7103,7 +7100,7 @@
       <c r="J85" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K85" s="78" t="s">
+      <c r="K85" s="65" t="s">
         <v>448</v>
       </c>
       <c r="L85" s="38"/>
@@ -7144,7 +7141,7 @@
       <c r="J86" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K86" s="78" t="s">
+      <c r="K86" s="65" t="s">
         <v>449</v>
       </c>
       <c r="L86" s="38"/>
@@ -7185,7 +7182,7 @@
       <c r="J87" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K87" s="78" t="s">
+      <c r="K87" s="65" t="s">
         <v>450</v>
       </c>
       <c r="L87" s="38"/>
@@ -7226,7 +7223,7 @@
       <c r="J88" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K88" s="78" t="s">
+      <c r="K88" s="65" t="s">
         <v>451</v>
       </c>
       <c r="L88" s="38"/>
@@ -7267,7 +7264,7 @@
       <c r="J89" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K89" s="78" t="s">
+      <c r="K89" s="65" t="s">
         <v>452</v>
       </c>
       <c r="L89" s="38"/>
@@ -7308,7 +7305,7 @@
       <c r="J90" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K90" s="78" t="s">
+      <c r="K90" s="65" t="s">
         <v>453</v>
       </c>
       <c r="L90" s="38"/>
@@ -7349,7 +7346,7 @@
       <c r="J91" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K91" s="78" t="s">
+      <c r="K91" s="65" t="s">
         <v>454</v>
       </c>
       <c r="L91" s="38"/>
@@ -7390,7 +7387,7 @@
       <c r="J92" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K92" s="78" t="s">
+      <c r="K92" s="65" t="s">
         <v>455</v>
       </c>
       <c r="L92" s="38"/>
@@ -7431,7 +7428,7 @@
       <c r="J93" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K93" s="78" t="s">
+      <c r="K93" s="65" t="s">
         <v>459</v>
       </c>
       <c r="L93" s="38"/>
@@ -7472,7 +7469,7 @@
       <c r="J94" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K94" s="78" t="s">
+      <c r="K94" s="65" t="s">
         <v>456</v>
       </c>
       <c r="L94" s="38"/>
@@ -7513,7 +7510,7 @@
       <c r="J95" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K95" s="78" t="s">
+      <c r="K95" s="65" t="s">
         <v>457</v>
       </c>
       <c r="L95" s="38"/>
@@ -7554,7 +7551,7 @@
       <c r="J96" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K96" s="78" t="s">
+      <c r="K96" s="65" t="s">
         <v>457</v>
       </c>
       <c r="L96" s="38"/>
@@ -7595,7 +7592,7 @@
       <c r="J97" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K97" s="78" t="s">
+      <c r="K97" s="65" t="s">
         <v>457</v>
       </c>
       <c r="L97" s="38"/>
@@ -7636,7 +7633,7 @@
       <c r="J98" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K98" s="78" t="s">
+      <c r="K98" s="65" t="s">
         <v>457</v>
       </c>
       <c r="L98" s="38"/>
@@ -7677,7 +7674,7 @@
       <c r="J99" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K99" s="78" t="s">
+      <c r="K99" s="65" t="s">
         <v>457</v>
       </c>
       <c r="L99" s="38"/>
@@ -7718,7 +7715,7 @@
       <c r="J100" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K100" s="78" t="s">
+      <c r="K100" s="65" t="s">
         <v>457</v>
       </c>
       <c r="L100" s="38"/>
@@ -7776,51 +7773,51 @@
       </c>
     </row>
     <row r="102" spans="1:23" ht="108.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="57">
+      <c r="A102" s="45">
         <v>471</v>
       </c>
-      <c r="B102" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="C102" s="58" t="s">
+      <c r="B102" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C102" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="D102" s="57" t="s">
+      <c r="D102" s="45" t="s">
         <v>428</v>
       </c>
-      <c r="E102" s="59" t="s">
+      <c r="E102" s="47" t="s">
         <v>429</v>
       </c>
-      <c r="F102" s="68">
+      <c r="F102" s="55">
         <v>45789</v>
       </c>
-      <c r="G102" s="69" t="s">
+      <c r="G102" s="56" t="s">
         <v>441</v>
       </c>
-      <c r="H102" s="70" t="s">
+      <c r="H102" s="57" t="s">
         <v>437</v>
       </c>
-      <c r="I102" s="71" t="s">
+      <c r="I102" s="58" t="s">
         <v>438</v>
       </c>
-      <c r="J102" s="63" t="s">
+      <c r="J102" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="K102" s="64"/>
-      <c r="L102" s="64"/>
-      <c r="M102" s="64"/>
-      <c r="N102" s="64"/>
-      <c r="O102" s="64"/>
-      <c r="P102" s="64"/>
-      <c r="Q102" s="64"/>
-      <c r="R102" s="64"/>
-      <c r="S102" s="64"/>
-      <c r="T102" s="64" t="s">
+      <c r="K102" s="52"/>
+      <c r="L102" s="52"/>
+      <c r="M102" s="52"/>
+      <c r="N102" s="52"/>
+      <c r="O102" s="52"/>
+      <c r="P102" s="52"/>
+      <c r="Q102" s="52"/>
+      <c r="R102" s="52"/>
+      <c r="S102" s="52"/>
+      <c r="T102" s="52" t="s">
         <v>230</v>
       </c>
-      <c r="U102" s="65"/>
-      <c r="V102" s="62"/>
-      <c r="W102" s="60" t="s">
+      <c r="U102" s="53"/>
+      <c r="V102" s="50"/>
+      <c r="W102" s="48" t="s">
         <v>36</v>
       </c>
     </row>
@@ -7840,10 +7837,10 @@
       <c r="E103" s="43" t="s">
         <v>435</v>
       </c>
-      <c r="F103" s="72"/>
-      <c r="G103" s="74"/>
-      <c r="H103" s="74"/>
-      <c r="I103" s="73"/>
+      <c r="F103" s="59"/>
+      <c r="G103" s="61"/>
+      <c r="H103" s="61"/>
+      <c r="I103" s="60"/>
       <c r="J103" s="38" t="s">
         <v>232</v>
       </c>
@@ -8554,7 +8551,7 @@
       <c r="J122" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K122" s="78" t="s">
+      <c r="K122" s="65" t="s">
         <v>444</v>
       </c>
       <c r="L122" s="38"/>
@@ -8595,7 +8592,7 @@
       <c r="J123" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K123" s="78" t="s">
+      <c r="K123" s="65" t="s">
         <v>444</v>
       </c>
       <c r="L123" s="38"/>
@@ -8695,7 +8692,7 @@
       <c r="J125" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K125" s="78" t="s">
+      <c r="K125" s="65" t="s">
         <v>447</v>
       </c>
       <c r="L125" s="38"/>
@@ -8736,7 +8733,7 @@
       <c r="J126" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K126" s="78" t="s">
+      <c r="K126" s="65" t="s">
         <v>448</v>
       </c>
       <c r="L126" s="38"/>
@@ -8777,7 +8774,7 @@
       <c r="J127" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K127" s="78" t="s">
+      <c r="K127" s="65" t="s">
         <v>449</v>
       </c>
       <c r="L127" s="38"/>
@@ -8818,7 +8815,7 @@
       <c r="J128" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K128" s="78" t="s">
+      <c r="K128" s="65" t="s">
         <v>450</v>
       </c>
       <c r="L128" s="38"/>
@@ -8859,7 +8856,7 @@
       <c r="J129" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K129" s="78" t="s">
+      <c r="K129" s="65" t="s">
         <v>452</v>
       </c>
       <c r="L129" s="38"/>
@@ -8900,7 +8897,7 @@
       <c r="J130" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K130" s="78" t="s">
+      <c r="K130" s="65" t="s">
         <v>453</v>
       </c>
       <c r="L130" s="38"/>
@@ -8941,7 +8938,7 @@
       <c r="J131" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K131" s="78" t="s">
+      <c r="K131" s="65" t="s">
         <v>454</v>
       </c>
       <c r="L131" s="38"/>
@@ -8982,7 +8979,7 @@
       <c r="J132" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K132" s="78" t="s">
+      <c r="K132" s="65" t="s">
         <v>455</v>
       </c>
       <c r="L132" s="38"/>
@@ -9023,7 +9020,7 @@
       <c r="J133" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K133" s="78" t="s">
+      <c r="K133" s="65" t="s">
         <v>458</v>
       </c>
       <c r="L133" s="38"/>
@@ -9064,7 +9061,7 @@
       <c r="J134" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K134" s="78" t="s">
+      <c r="K134" s="65" t="s">
         <v>457</v>
       </c>
       <c r="L134" s="38"/>
@@ -9105,7 +9102,7 @@
       <c r="J135" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K135" s="78" t="s">
+      <c r="K135" s="65" t="s">
         <v>457</v>
       </c>
       <c r="L135" s="38"/>
@@ -9146,7 +9143,7 @@
       <c r="J136" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K136" s="78" t="s">
+      <c r="K136" s="65" t="s">
         <v>457</v>
       </c>
       <c r="L136" s="38"/>
@@ -9187,7 +9184,7 @@
       <c r="J137" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K137" s="78" t="s">
+      <c r="K137" s="65" t="s">
         <v>457</v>
       </c>
       <c r="L137" s="38"/>
@@ -9228,7 +9225,7 @@
       <c r="J138" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K138" s="78" t="s">
+      <c r="K138" s="65" t="s">
         <v>457</v>
       </c>
       <c r="L138" s="38"/>
@@ -9269,7 +9266,7 @@
       <c r="J139" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K139" s="78" t="s">
+      <c r="K139" s="65" t="s">
         <v>457</v>
       </c>
       <c r="L139" s="38"/>
@@ -9310,7 +9307,7 @@
       <c r="J140" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K140" s="78" t="s">
+      <c r="K140" s="65" t="s">
         <v>457</v>
       </c>
       <c r="L140" s="38"/>
@@ -9329,51 +9326,51 @@
       </c>
     </row>
     <row r="141" spans="1:23" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="57">
+      <c r="A141" s="45">
         <v>448</v>
       </c>
-      <c r="B141" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="C141" s="58" t="s">
+      <c r="B141" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C141" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="D141" s="57" t="s">
+      <c r="D141" s="45" t="s">
         <v>393</v>
       </c>
-      <c r="E141" s="59" t="s">
+      <c r="E141" s="47" t="s">
         <v>395</v>
       </c>
-      <c r="F141" s="76" t="s">
+      <c r="F141" s="63" t="s">
         <v>443</v>
       </c>
-      <c r="G141" s="75" t="s">
+      <c r="G141" s="62" t="s">
         <v>442</v>
       </c>
-      <c r="H141" s="77" t="s">
+      <c r="H141" s="64" t="s">
         <v>439</v>
       </c>
-      <c r="I141" s="66" t="s">
+      <c r="I141" s="54" t="s">
         <v>440</v>
       </c>
       <c r="J141" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="K141" s="67"/>
-      <c r="L141" s="67"/>
-      <c r="M141" s="67"/>
-      <c r="N141" s="67"/>
-      <c r="O141" s="67"/>
-      <c r="P141" s="67"/>
-      <c r="Q141" s="67"/>
-      <c r="R141" s="67"/>
-      <c r="S141" s="67"/>
-      <c r="T141" s="60" t="s">
+      <c r="K141" s="48"/>
+      <c r="L141" s="48"/>
+      <c r="M141" s="48"/>
+      <c r="N141" s="48"/>
+      <c r="O141" s="48"/>
+      <c r="P141" s="48"/>
+      <c r="Q141" s="48"/>
+      <c r="R141" s="48"/>
+      <c r="S141" s="48"/>
+      <c r="T141" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="U141" s="61"/>
-      <c r="V141" s="62"/>
-      <c r="W141" s="60" t="s">
+      <c r="U141" s="49"/>
+      <c r="V141" s="50"/>
+      <c r="W141" s="48" t="s">
         <v>36</v>
       </c>
     </row>
@@ -9439,7 +9436,7 @@
       <c r="J143" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K143" s="78" t="s">
+      <c r="K143" s="65" t="s">
         <v>457</v>
       </c>
       <c r="L143" s="35"/>
@@ -9480,7 +9477,7 @@
       <c r="J144" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K144" s="78" t="s">
+      <c r="K144" s="65" t="s">
         <v>457</v>
       </c>
       <c r="L144" s="35"/>
@@ -17649,18 +17646,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -17918,6 +17903,18 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -17928,23 +17925,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CE213DB-5082-48B0-B2A5-099EBF944035}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17963,6 +17943,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
